--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8A765-6EB3-48FD-9947-25E381B0419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA8D4F-6653-47AB-9FA4-C4EDAA16652B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10992" yWindow="3672" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Q. Hu, L. Ma, X. Xie, B. Yu, Y. Liu and J. Zhao, "DeepMutation++: A Mutation Testing Framework for Deep Learning Systems," 2019 34th IEEE/ACM International Conference on Automated Software Engineering (ASE), 2019, pp. 1158-1161, doi: 10.1109/ASE.2019.00126.</t>
+  </si>
+  <si>
+    <t>Jatana, Nishtha; Suri, Bharti (2020). An Improved Crow Search Algorithm for Test Data Generation Using Search-Based Mutation Testing. Neural Processing Letters, (), –. doi:10.1007/s11063-020-10288-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Improved Crow Search Algorithm for Test Data </t>
   </si>
 </sst>
 </file>
@@ -363,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -390,6 +396,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\edgeDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA8D4F-6653-47AB-9FA4-C4EDAA16652B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328AC1F-AD3C-4C11-9E64-628082945177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t xml:space="preserve">An Improved Crow Search Algorithm for Test Data </t>
+  </si>
+  <si>
+    <t>An Industrial Application of Mutation Testing - Lessons, Challenges, and Research Directions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G. Petrovic, M. Ivankovic, B. Kurtz, P. Ammann and R. Just, "An Industrial Application of Mutation Testing: Lessons, Challenges, and Research Directions," 2018 IEEE International Conference on Software Testing, Verification and Validation Workshops (ICSTW), 2018, pp. 47-53, doi: 10.1109/ICSTW.2018.00027.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applying Mutation Testing to Web Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U. Praphamontripong and J. Offutt, "Applying Mutation Testing to Web Applications," 2010 Third International Conference on Software Testing, Verification, and Validation Workshops, 2010, pp. 132-141, doi: 10.1109/ICSTW.2010.38.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rudolf Ramler, Thomas Wetzlmaier, and Claus Klammer. 2017. An empirical study on the application of mutation testing for a safety-critical industrial software system. In Proceedings of the Symposium on Applied Computing (SAC '17). Association for Computing Machinery, New York, NY, USA, 1401–1408.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An empirical study on the application of mutation testing for a safety-critical industrial software system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -369,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" customWidth="1"/>
+    <col min="1" max="1" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,6 +426,30 @@
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\edgeDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4328AC1F-AD3C-4C11-9E64-628082945177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D74A85F-E35C-4209-B4B5-B007093CEB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,45 @@
   </si>
   <si>
     <t>An empirical study on the application of mutation testing for a safety-critical industrial software system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>De Souza S D R S, Maldonado J C, Fabbri S C P F, et al. Mutation testing applied to estelle specifications[J]. Software Quality Journal, 1999, 8(4): 285-301.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation Testing Applied to Estelle Specifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betka M, Wagner S. Towards practical application of mutation testing in industry—Traditional versus extreme mutation testing[J]. Journal of Software: Evolution and Process, 2022: e2450.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towards practical application of mutation testing in industry — Traditional versus extreme mutation testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applying Mutation Testing to XML Schemas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Franzotte L, Vergilio S R. Applying Mutation Testing in XML Schemas[C]//SEKE. 2006: 511-516.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation Testing Applied to Hardware: the Mutants Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDroid+: A Mutation Testing Framework for Android</t>
+  </si>
+  <si>
+    <t>Nguyen T B, Robach C. Mutation testing applied to hardware: the mutants generation[C]//Proceedings of the 11th IFIP International Conference on Very Large Scale Integration. 2001: 118-123.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moran K, Tufano M, Bernal-Cárdenas C, et al. Mdroid+: A mutation testing framework for android[C]//2018 IEEE/ACM 40th International Conference on Software Engineering: Companion (ICSE-Companion). IEEE, 2018: 33-36.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,8 +150,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -393,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,6 +494,46 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\edgeDownload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D74A85F-E35C-4209-B4B5-B007093CEB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A531295-5D4D-46E3-A66E-45F36C1916CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8928" yWindow="2736" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,12 @@
   <si>
     <t>Moran K, Tufano M, Bernal-Cárdenas C, et al. Mdroid+: A mutation testing framework for android[C]//2018 IEEE/ACM 40th International Conference on Software Engineering: Companion (ICSE-Companion). IEEE, 2018: 33-36.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aichernig B K, Tappler M. Efficient active automata learning via mutation testing[J]. Journal of Automated Reasoning, 2019, 63(4): 1103-1134.</t>
+  </si>
+  <si>
+    <t>Efficient Active Automata Learning via Mutation Testing</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -534,6 +540,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A531295-5D4D-46E3-A66E-45F36C1916CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B84316-8569-4B57-A516-301177287F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8928" yWindow="2736" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4068" yWindow="4488" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,37 @@
   </si>
   <si>
     <t>Efficient Active Automata Learning via Mutation Testing</t>
+  </si>
+  <si>
+    <t>L. Klampfl, N. Chetouane and F. Wotawa, "Mutation Testing for Artificial Neural Networks: An Empirical Evaluation," 2020 IEEE 20th International Conference on Software Quality, Reliability and Security (QRS), 2020, pp. 356-365, doi: 10.1109/QRS51102.2020.00054.</t>
+  </si>
+  <si>
+    <t>Mutation Testing for Artificial Neural Networks: An Empirical Evaluation</t>
+  </si>
+  <si>
+    <t>Tarımcı A B, Sözer H. Mutation testing of PL/SQL programs[J]. Journal of Systems and Software, 2022, 192: 111399.</t>
+  </si>
+  <si>
+    <t>Mutation testing of PL/SQL programs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang J, Sun J, Zhang P, et al. Detecting adversarial samples for deep neural networks through mutation testing[J]. arXiv preprint arXiv:1805.05010, 2018.</t>
+  </si>
+  <si>
+    <t>Detecting adversarial samples for deep neural networks through mutation testing</t>
+  </si>
+  <si>
+    <t>As quantum computing is still in its infancy, there is an inherent lack of knowledge and technology to test a quantum program properly. In the classical realm, mutation testing has been successfully used to evaluate how well a program's test suite detects seeded faults (i.e., mutants). In this article, building on the definition of syntactically equivalent quantum operations, we propose a novel set of mutation operators to generate mutants based on qubit measurements and quantum gates. To ease the adoption of quantum mutation testing, we further propose QMutPy, an extension of the well-known and fully automated open-source mutation tool MutPy. To evaluate QMutPy's performance, we conducted a case study on 24 real quantum programs written in IBM's Qiskit library. Furthermore, we show how better test suite coverage and improvements to test assertions can increase the test suites' mutation score and quality. QMutPy has proven to be an effective quantum mutation tool, providing insight into the current state of quantum tests and how to improve them.</t>
+  </si>
+  <si>
+    <t>Mutation_Testing_of_Quantum_Programs_A_Case_Study_With_Qiskit</t>
+  </si>
+  <si>
+    <t>de Oliveira Neto F G, Dobslaw F, Feldt R. Using mutation testing to measure behavioural test diversity[C]//2020 IEEE International Conference on Software Testing, Verification and Validation Workshops (ICSTW). IEEE, 2020: 254-263.</t>
+  </si>
+  <si>
+    <t>Using_mutation_testing_to_measure_behavioural_test_diversity</t>
   </si>
 </sst>
 </file>
@@ -441,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -548,6 +579,46 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\自动化测试\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B84316-8569-4B57-A516-301177287F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96192794-E647-4CD3-8246-FB7162FB1D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="4488" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,13 +145,99 @@
   </si>
   <si>
     <t>Using_mutation_testing_to_measure_behavioural_test_diversity</t>
+  </si>
+  <si>
+    <t>A systematic literature review of techniques and metrics to reduce the cost of mutation testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepMutation: Mutation Testing of Deep Learning Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lei Ma, Fuyuan Zhang, Jiyuan Sun, Minhui Xue, Bo Li, Felix Juefei-Xu DeepMutation: Mutation Testing of Deep Learning Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.R.Woodward and K.Halewood Department of Computer Science, University of Liverpool,P.O. Box 147, Liverpool, L69 3BX, U.K.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM WEAK TO STRONG, DEAD OR ALIVE?AN ANALYSIS OF SOME MUTATION TESTING ISSUES.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Empirical Evaluation of the First and Second Order Mutation Testing Strategies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Papadakis and Nicos Malevris Department of Informatics, Athens University of Economics and Business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Athens, Greece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducing the Cost of Mutation Testing:An Empirical Study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W. Eric Wong Bell Communications Research, Morristown, New Jersey Aditya P. Mathur Department of Computer Sciences, Purdue University, West Lafayette, Indiana Reducing the Cost of Mutation Testing:An Empirical Study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Mutation Testing and Completeness of Test Sets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WILLIAM E. HOWDEN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON SOFTWARE ENGINEERING, VOL. SE-8, NO. 4, JULY 1982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SSDI 0164.1212(94)00098-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Third International Conference on Software Testing, Verification, and Validation Workshops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH0225-3/88/oooO/0152$01.~ 0 1988 IEEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 IEEE 29th International Symposium on Software Reliability Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alessandro Viola Pizzoleto, Fabiano Cutigi Ferrari, Jeff Offutt, Leo Fernandes,Márcio Ribeiro A systematic literature review of techniques and metrics to reduce the cost of mutation testing  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Journal of Systems and Software 157 (2019) 110388</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,16 +252,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -183,18 +292,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,18 +605,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:BA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.44140625" customWidth="1"/>
+    <col min="1" max="1" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -499,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -507,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -515,7 +648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -523,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -531,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -539,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -547,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -555,7 +688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -563,7 +696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -571,7 +704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -579,7 +712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -587,7 +720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -595,7 +728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -603,15 +736,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:53" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -619,7 +753,136 @@
         <v>32</v>
       </c>
     </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:BA18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\自动化测试\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96192794-E647-4CD3-8246-FB7162FB1D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81533B-F9A4-4101-B218-68DAAE8E6B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,30 @@
       </rPr>
       <t>The Journal of Systems and Software 157 (2019) 110388</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE DEFENDERS: A Mutation Testing Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jose Miguel Rojas, Gordon Fraser Department of Computer Science, The University of Sheffield, Sheffield, United Kingdom CODE DEFENDERS: A Mutation Testing Game：eprints.whiterose.ac.uk/116454/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation testing applied to validate specifications based on Petri Nets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.C.P.F. FabbriO J. C. Maldonado P.C.Masiero ME.Delamaro E. Wong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mutation testing applied to validate specifications based on Petri Nets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link.springer.com/content/pdf/10.1007/978-0-387-34945-9_24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,10 +344,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA23"/>
+  <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -757,60 +781,60 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -877,6 +901,28 @@
       </c>
       <c r="I23" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\自动化测试\automated-testing-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96192794-E647-4CD3-8246-FB7162FB1D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1C5644-0343-4116-BBB1-E5B89D5B93CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="2316" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,12 +232,30 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Papadakis M, Le Traon Y. Metallaxis‐FL: mutation‐based fault localization[J]. Software Testing, Verification and Reliability, 2015, 25(5-7): 605-628.</t>
+  </si>
+  <si>
+    <t>Metallaxis‐FL: mutation‐based fault localization</t>
+  </si>
+  <si>
+    <t>Moon S, Kim Y, Kim M, et al. Ask the mutants: Mutating faulty programs for fault localization[C]//2014 IEEE Seventh International Conference on Software Testing, Verification and Validation. IEEE, 2014: 153-162.</t>
+  </si>
+  <si>
+    <t>Ask the mutants: Mutating faulty programs for fault localization</t>
+  </si>
+  <si>
+    <t>Papadakis M, Le Traon Y. Effective fault localization via mutation analysis: A selective mutation approach[C]//Proceedings of the 29th annual ACM symposium on applied computing. 2014: 1293-1300.</t>
+  </si>
+  <si>
+    <t>Effective fault localization via mutation analysis: A selective mutation approach</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +283,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -319,11 +345,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,18 +631,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA23"/>
+  <dimension ref="A1:BA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.5" customWidth="1"/>
+    <col min="1" max="1" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -632,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -640,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -648,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -656,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -664,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -672,7 +698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -680,7 +706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -688,7 +714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -696,7 +722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -704,7 +730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -712,7 +738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -720,7 +746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -728,7 +754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -736,16 +762,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:53" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:53" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -753,11 +779,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="3"/>
@@ -812,7 +838,7 @@
       <c r="AZ18" s="3"/>
       <c r="BA18" s="3"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -823,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -837,7 +863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -854,7 +880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -865,7 +891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -877,6 +903,30 @@
       </c>
       <c r="I23" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\自动化测试\automated-testing-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81533B-F9A4-4101-B218-68DAAE8E6B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA30750-44E4-40CF-921A-B371B3263D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="2040" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,24 @@
   <si>
     <t>link.springer.com/content/pdf/10.1007/978-0-387-34945-9_24</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metallaxis‐FL: mutation‐based fault localization</t>
+  </si>
+  <si>
+    <t>Papadakis M, Le Traon Y. Metallaxis‐FL: mutation‐based fault localization[J]. Software Testing, Verification and Reliability, 2015, 25(5-7): 605-628.</t>
+  </si>
+  <si>
+    <t>Ask the mutants: Mutating faulty programs for fault localization</t>
+  </si>
+  <si>
+    <t>Moon S, Kim Y, Kim M, et al. Ask the mutants: Mutating faulty programs for fault localization[C]//2014 IEEE Seventh International Conference on Software Testing, Verification and Validation. IEEE, 2014: 153-162.</t>
+  </si>
+  <si>
+    <t>Effective fault localization via mutation analysis: A selective mutation approach</t>
+  </si>
+  <si>
+    <t>Papadakis M, Le Traon Y. Effective fault localization via mutation analysis: A selective mutation approach[C]//Proceedings of the 29th annual ACM symposium on applied computing. 2014: 1293-1300.</t>
   </si>
 </sst>
 </file>
@@ -629,18 +647,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.5" customWidth="1"/>
+    <col min="1" max="1" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -656,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -664,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -672,7 +690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -680,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -688,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -696,7 +714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -704,7 +722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -712,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -720,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -728,7 +746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -736,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -744,7 +762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -752,7 +770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -760,7 +778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -769,7 +787,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:53" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -777,7 +795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -836,7 +854,7 @@
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -847,7 +865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -861,7 +879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -878,7 +896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -889,7 +907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -903,7 +921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -911,7 +929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -923,6 +941,30 @@
       </c>
       <c r="O25" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA30750-44E4-40CF-921A-B371B3263D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B1FD5A-8604-4DC1-B11B-C2831CAE44CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="2040" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Applying Mutation Testing to Web Applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U. Praphamontripong and J. Offutt, "Applying Mutation Testing to Web Applications," 2010 Third International Conference on Software Testing, Verification, and Validation Workshops, 2010, pp. 132-141, doi: 10.1109/ICSTW.2010.38.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rudolf Ramler, Thomas Wetzlmaier, and Claus Klammer. 2017. An empirical study on the application of mutation testing for a safety-critical industrial software system. In Proceedings of the Symposium on Applied Computing (SAC '17). Association for Computing Machinery, New York, NY, USA, 1401–1408.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>De Souza S D R S, Maldonado J C, Fabbri S C P F, et al. Mutation testing applied to estelle specifications[J]. Software Quality Journal, 1999, 8(4): 285-301.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutation Testing Applied to Estelle Specifications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Betka M, Wagner S. Towards practical application of mutation testing in industry—Traditional versus extreme mutation testing[J]. Journal of Software: Evolution and Process, 2022: e2450.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,23 +71,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Applying Mutation Testing to XML Schemas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Franzotte L, Vergilio S R. Applying Mutation Testing in XML Schemas[C]//SEKE. 2006: 511-516.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutation Testing Applied to Hardware: the Mutants Generation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MDroid+: A Mutation Testing Framework for Android</t>
-  </si>
-  <si>
-    <t>Nguyen T B, Robach C. Mutation testing applied to hardware: the mutants generation[C]//Proceedings of the 11th IFIP International Conference on Very Large Scale Integration. 2001: 118-123.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Moran K, Tufano M, Bernal-Cárdenas C, et al. Mdroid+: A mutation testing framework for android[C]//2018 IEEE/ACM 40th International Conference on Software Engineering: Companion (ICSE-Companion). IEEE, 2018: 33-36.</t>
@@ -274,12 +242,36 @@
   <si>
     <t>Papadakis M, Le Traon Y. Effective fault localization via mutation analysis: A selective mutation approach[C]//Proceedings of the 29th annual ACM symposium on applied computing. 2014: 1293-1300.</t>
   </si>
+  <si>
+    <t>Adversarial Sample Detection for Deep Neural Network through Model Mutation Testing</t>
+  </si>
+  <si>
+    <t>Wang J, Dong G, Sun J, et al. Adversarial sample detection for deep neural network through model mutation testing[C]//2019 IEEE/ACM 41st International Conference on Software Engineering (ICSE). IEEE, 2019: 1245-1256.</t>
+  </si>
+  <si>
+    <t>Mitigating the Effects of Flaky Tests on Mutation Testing</t>
+  </si>
+  <si>
+    <t>Shi A, Bell J, Marinov D. Mitigating the effects of flaky tests on mutation testing[C]//Proceedings of the 28th ACM SIGSOFT International Symposium on Software Testing and Analysis. 2019: 112-122.</t>
+  </si>
+  <si>
+    <t>Assessing Test Case Prioritization on Real Faults and Mutants</t>
+  </si>
+  <si>
+    <t>Luo Q, Moran K, Poshyvanyk D, et al. Assessing test case prioritization on real faults and mutants[C]//2018 IEEE international conference on software maintenance and evolution (ICSME). IEEE, 2018: 240-251.</t>
+  </si>
+  <si>
+    <t>Empirical Evaluation of Mutation-based Test Case Prioritization Techniques</t>
+  </si>
+  <si>
+    <t>Shin D, Yoo S, Papadakis M, et al. Empirical evaluation of mutation‐based test case prioritization techniques[J]. Software Testing, Verification and Reliability, 2019, 29(1-2): e1695.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,15 +289,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -313,20 +296,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -334,42 +312,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -647,18 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="95.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -674,7 +629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -682,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -690,287 +645,232 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:53" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" t="s">
-        <v>38</v>
-      </c>
-      <c r="V20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="V22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="H25" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B18:BA18"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\自动化测试\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B1FD5A-8604-4DC1-B11B-C2831CAE44CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF1DF65-CD6D-458A-A418-B4F01C01839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Applying Mutation Testing to Web Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U. Praphamontripong and J. Offutt, "Applying Mutation Testing to Web Applications," 2010 Third International Conference on Software Testing, Verification, and Validation Workshops, 2010, pp. 132-141, doi: 10.1109/ICSTW.2010.38.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Rudolf Ramler, Thomas Wetzlmaier, and Claus Klammer. 2017. An empirical study on the application of mutation testing for a safety-critical industrial software system. In Proceedings of the Symposium on Applied Computing (SAC '17). Association for Computing Machinery, New York, NY, USA, 1401–1408.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +71,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>De Souza S D R S, Maldonado J C, Fabbri S C P F, et al. Mutation testing applied to estelle specifications[J]. Software Quality Journal, 1999, 8(4): 285-301.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation Testing Applied to Estelle Specifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Betka M, Wagner S. Towards practical application of mutation testing in industry—Traditional versus extreme mutation testing[J]. Journal of Software: Evolution and Process, 2022: e2450.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,9 +87,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Applying Mutation Testing to XML Schemas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Franzotte L, Vergilio S R. Applying Mutation Testing in XML Schemas[C]//SEKE. 2006: 511-516.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutation Testing Applied to Hardware: the Mutants Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MDroid+: A Mutation Testing Framework for Android</t>
   </si>
   <si>
+    <t>Nguyen T B, Robach C. Mutation testing applied to hardware: the mutants generation[C]//Proceedings of the 11th IFIP International Conference on Very Large Scale Integration. 2001: 118-123.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Moran K, Tufano M, Bernal-Cárdenas C, et al. Mdroid+: A mutation testing framework for android[C]//2018 IEEE/ACM 40th International Conference on Software Engineering: Companion (ICSE-Companion). IEEE, 2018: 33-36.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,50 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lei Ma, Fuyuan Zhang, Jiyuan Sun, Minhui Xue, Bo Li, Felix Juefei-Xu DeepMutation: Mutation Testing of Deep Learning Systems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.R.Woodward and K.Halewood Department of Computer Science, University of Liverpool,P.O. Box 147, Liverpool, L69 3BX, U.K.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FROM WEAK TO STRONG, DEAD OR ALIVE?AN ANALYSIS OF SOME MUTATION TESTING ISSUES.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>An Empirical Evaluation of the First and Second Order Mutation Testing Strategies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike Papadakis and Nicos Malevris Department of Informatics, Athens University of Economics and Business</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Athens, Greece</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reducing the Cost of Mutation Testing:An Empirical Study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W. Eric Wong Bell Communications Research, Morristown, New Jersey Aditya P. Mathur Department of Computer Sciences, Purdue University, West Lafayette, Indiana Reducing the Cost of Mutation Testing:An Empirical Study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak Mutation Testing and Completeness of Test Sets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">WILLIAM E. HOWDEN </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE TRANSACTIONS ON SOFTWARE ENGINEERING, VOL. SE-8, NO. 4, JULY 1982</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> SSDI 0164.1212(94)00098-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,52 +167,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018 IEEE 29th International Symposium on Software Reliability Engineering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Alessandro Viola Pizzoleto, Fabiano Cutigi Ferrari, Jeff Offutt, Leo Fernandes,Márcio Ribeiro A systematic literature review of techniques and metrics to reduce the cost of mutation testing  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Journal of Systems and Software 157 (2019) 110388</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CODE DEFENDERS: A Mutation Testing Game</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jose Miguel Rojas, Gordon Fraser Department of Computer Science, The University of Sheffield, Sheffield, United Kingdom CODE DEFENDERS: A Mutation Testing Game：eprints.whiterose.ac.uk/116454/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutation testing applied to validate specifications based on Petri Nets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S.C.P.F. FabbriO J. C. Maldonado P.C.Masiero ME.Delamaro E. Wong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mutation testing applied to validate specifications based on Petri Nets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link.springer.com/content/pdf/10.1007/978-0-387-34945-9_24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Metallaxis‐FL: mutation‐based fault localization</t>
   </si>
   <si>
@@ -243,28 +189,56 @@
     <t>Papadakis M, Le Traon Y. Effective fault localization via mutation analysis: A selective mutation approach[C]//Proceedings of the 29th annual ACM symposium on applied computing. 2014: 1293-1300.</t>
   </si>
   <si>
-    <t>Adversarial Sample Detection for Deep Neural Network through Model Mutation Testing</t>
+    <t>Pizzoleto A V, Ferrari F C, Offutt J, et al. A systematic literature review of techniques and metrics to reduce the cost of mutation testing[J]. Journal of Systems and Software, 2019, 157: 110388.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ma L, Zhang F, Sun J, et al. Deepmutation: Mutation testing of deep learning systems[C]//2018 IEEE 29th International Symposium on Software Reliability Engineering (ISSRE). IEEE, 2018: 100-111.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rojas J M, Fraser G. Code defenders: a mutation testing game[C]//2016 IEEE Ninth International Conference on Software Testing, Verification and Validation Workshops (ICSTW). IEEE, 2016: 162-167.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adversarial sample detection for deep neural network through model mutation testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wang J, Dong G, Sun J, et al. Adversarial sample detection for deep neural network through model mutation testing[C]//2019 IEEE/ACM 41st International Conference on Software Engineering (ICSE). IEEE, 2019: 1245-1256.</t>
-  </si>
-  <si>
-    <t>Mitigating the Effects of Flaky Tests on Mutation Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mitigating the effects of flaky tests on mutation testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shi A, Bell J, Marinov D. Mitigating the effects of flaky tests on mutation testing[C]//Proceedings of the 28th ACM SIGSOFT International Symposium on Software Testing and Analysis. 2019: 112-122.</t>
-  </si>
-  <si>
-    <t>Assessing Test Case Prioritization on Real Faults and Mutants</t>
-  </si>
-  <si>
-    <t>Luo Q, Moran K, Poshyvanyk D, et al. Assessing test case prioritization on real faults and mutants[C]//2018 IEEE international conference on software maintenance and evolution (ICSME). IEEE, 2018: 240-251.</t>
-  </si>
-  <si>
-    <t>Empirical Evaluation of Mutation-based Test Case Prioritization Techniques</t>
-  </si>
-  <si>
-    <t>Shin D, Yoo S, Papadakis M, et al. Empirical evaluation of mutation‐based test case prioritization techniques[J]. Software Testing, Verification and Reliability, 2019, 29(1-2): e1695.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An extensive study on cross-project predictive mutation testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mao D, Chen L, Zhang L. An extensive study on cross-project predictive mutation testing[C]//2019 12th IEEE Conference on Software Testing, Validation and Verification (ICST). IEEE, 2019: 160-171.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wodel-Test: a model-based framework for language-independent mutation testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gómez-Abajo P, Guerra E, Lara J, et al. Wodel-Test: a model-based framework for language-independent mutation testing[J]. Software and Systems Modeling, 2021, 20(3): 767-793.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evolutionary mutation testing for IoT with recorded and generated events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gutiérrez‐Madroñal L, García‐Domínguez A, Medina‐Bulo I. Evolutionary mutation testing for IoT with recorded and generated events[J]. Software: Practice and Experience, 2019, 49(4): 640-672.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -289,22 +263,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -312,18 +291,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,19 +604,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:BA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="95.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -629,7 +631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -637,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -645,232 +647,263 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:53" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="V22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" t="s">
-        <v>30</v>
-      </c>
-      <c r="V20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>31</v>
-      </c>
-      <c r="T21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:BA18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\自动化测试\automated-testing-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\edgeDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF1DF65-CD6D-458A-A418-B4F01C01839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC232831-1C22-4003-A414-6D05630141F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Applying Mutation Testing to Web Applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U. Praphamontripong and J. Offutt, "Applying Mutation Testing to Web Applications," 2010 Third International Conference on Software Testing, Verification, and Validation Workshops, 2010, pp. 132-141, doi: 10.1109/ICSTW.2010.38.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rudolf Ramler, Thomas Wetzlmaier, and Claus Klammer. 2017. An empirical study on the application of mutation testing for a safety-critical industrial software system. In Proceedings of the Symposium on Applied Computing (SAC '17). Association for Computing Machinery, New York, NY, USA, 1401–1408.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>De Souza S D R S, Maldonado J C, Fabbri S C P F, et al. Mutation testing applied to estelle specifications[J]. Software Quality Journal, 1999, 8(4): 285-301.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutation Testing Applied to Estelle Specifications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Betka M, Wagner S. Towards practical application of mutation testing in industry—Traditional versus extreme mutation testing[J]. Journal of Software: Evolution and Process, 2022: e2450.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,25 +71,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Applying Mutation Testing to XML Schemas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Franzotte L, Vergilio S R. Applying Mutation Testing in XML Schemas[C]//SEKE. 2006: 511-516.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mutation Testing Applied to Hardware: the Mutants Generation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MDroid+: A Mutation Testing Framework for Android</t>
   </si>
   <si>
-    <t>Nguyen T B, Robach C. Mutation testing applied to hardware: the mutants generation[C]//Proceedings of the 11th IFIP International Conference on Very Large Scale Integration. 2001: 118-123.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Moran K, Tufano M, Bernal-Cárdenas C, et al. Mdroid+: A mutation testing framework for android[C]//2018 IEEE/ACM 40th International Conference on Software Engineering: Companion (ICSE-Companion). IEEE, 2018: 33-36.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +207,30 @@
   <si>
     <t>Gutiérrez‐Madroñal L, García‐Domínguez A, Medina‐Bulo I. Evolutionary mutation testing for IoT with recorded and generated events[J]. Software: Practice and Experience, 2019, 49(4): 640-672.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adversarial Sample Detection for Deep Neural Network through Model Mutation Testing</t>
+  </si>
+  <si>
+    <t>Wang J, Dong G, Sun J, et al. Adversarial sample detection for deep neural network through model mutation testing[C]//2019 IEEE/ACM 41st International Conference on Software Engineering (ICSE). IEEE, 2019: 1245-1256.</t>
+  </si>
+  <si>
+    <t>Mitigating the Effects of Flaky Tests on Mutation Testing</t>
+  </si>
+  <si>
+    <t>Shi A, Bell J, Marinov D. Mitigating the effects of flaky tests on mutation testing[C]//Proceedings of the 28th ACM SIGSOFT International Symposium on Software Testing and Analysis. 2019: 112-122.</t>
+  </si>
+  <si>
+    <t>Assessing Test Case Prioritization on Real Faults and Mutants</t>
+  </si>
+  <si>
+    <t>Luo Q, Moran K, Poshyvanyk D, et al. Assessing test case prioritization on real faults and mutants[C]//2018 IEEE international conference on software maintenance and evolution (ICSME). IEEE, 2018: 240-251.</t>
+  </si>
+  <si>
+    <t>Empirical Evaluation of Mutation-based Test Case Prioritization Techniques</t>
+  </si>
+  <si>
+    <t>Shin D, Yoo S, Papadakis M, et al. Empirical evaluation of mutation‐based test case prioritization techniques[J]. Software Testing, Verification and Reliability, 2019, 29(1-2): e1695.</t>
   </si>
 </sst>
 </file>
@@ -315,10 +307,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -607,15 +599,15 @@
   <dimension ref="A1:BA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A4" sqref="A4:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.5" customWidth="1"/>
+    <col min="1" max="1" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -631,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -639,7 +631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -647,117 +639,117 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:53" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:53" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -811,93 +803,93 @@
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="V22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="V20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="T21" t="s">
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="V22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\edgeDownload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC232831-1C22-4003-A414-6D05630141F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2BEB7-FC4E-4FA7-BB6B-C03E462623E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,59 @@
   </si>
   <si>
     <t>Shin D, Yoo S, Papadakis M, et al. Empirical evaluation of mutation‐based test case prioritization techniques[J]. Software Testing, Verification and Reliability, 2019, 29(1-2): e1695.</t>
+  </si>
+  <si>
+    <t>PIT: A Practical Mutation Testing Tool for Java (Demo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coles, Henry, et al. "Pit: a practical mutation testing tool for java." Proceedings of the 25th international symposium on software testing and analysis. 2016.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutode: generic JavaScript and Node.js mutation testing tool</t>
+  </si>
+  <si>
+    <t>Rodríguez-Baquero, Diego, and Mario Linares-Vásquez. "Mutode: generic javascript and node. js mutation testing tool." Proceedings of the 27th ACM SIGSOFT International Symposium on Software Testing and Analysis. 2018.</t>
+  </si>
+  <si>
+    <t>Kintis, Marinos, et al. "Analysing and comparing the effectiveness of mutation testing tools: A manual study." 2016 IEEE 16th International Working Conference on Source Code Analysis and Manipulation (SCAM). IEEE, 2016.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysing and Comparing the Effectiveness of Mutation Testing Tools: A Manual Study</t>
+  </si>
+  <si>
+    <t>Faster mutation testing inspired by test prioritization and reduction</t>
+  </si>
+  <si>
+    <t>Zhang, Lingming, Darko Marinov, and Sarfraz Khurshid. "Faster mutation testing inspired by test prioritization and reduction." Proceedings of the 2013 International Symposium on Software Testing and Analysis. 2013.</t>
+  </si>
+  <si>
+    <t>Laurent, Thomas, et al. "Assessing and improving the mutation testing practice of pit." 2017 IEEE International Conference on Software Testing, Verification and Validation (ICST). IEEE, 2017.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assessing and Improving the Mutation Testing Practice of PIT</t>
+  </si>
+  <si>
+    <t>An Industrial Application of Mutation Testing</t>
+  </si>
+  <si>
+    <t>Petrovic, Goran, et al. "An industrial application of mutation testing: Lessons, challenges, and research directions." 2018 IEEE International Conference on Software Testing, Verification and Validation Workshops (ICSTW). IEEE, 2018.</t>
+  </si>
+  <si>
+    <t>Efficient JavaScript Mutation Testing</t>
+  </si>
+  <si>
+    <t>Mirshokraie, Shabnam, Ali Mesbah, and Karthik Pattabiraman. "Efficient JavaScript mutation testing." 2013 IEEE Sixth International Conference on Software Testing, Verification and Validation. IEEE, 2013.</t>
+  </si>
+  <si>
+    <t>The Major Mutation Framework:Efficient and Scalable Mutation Analysis for Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just, René. "The Major mutation framework: Efficient and scalable mutation analysis for Java." Proceedings of the 2014 international symposium on software testing and analysis. 2014.</t>
   </si>
 </sst>
 </file>
@@ -305,9 +358,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -596,18 +652,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA28"/>
+  <dimension ref="A1:BA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B11"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="95.44140625" customWidth="1"/>
+    <col min="1" max="1" width="95.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -623,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -631,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -639,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -647,7 +703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -655,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -663,7 +719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -671,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -679,7 +735,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -687,7 +743,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -695,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -703,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -711,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -719,7 +775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -727,7 +783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -736,7 +792,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:53" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -744,66 +800,66 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -811,7 +867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -822,7 +878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -833,7 +889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -844,7 +900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -852,7 +908,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -860,7 +916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -868,7 +924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -876,7 +932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -884,12 +940,76 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/papers_list.xlsx
+++ b/papers_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\automated-testing-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURSE\AT\大作业\automated-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2BEB7-FC4E-4FA7-BB6B-C03E462623E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A04CAE1-92CB-4916-9FF9-91747F8FD542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="564" yWindow="1440" windowWidth="23040" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Detecting adversarial samples for deep neural networks through mutation testing</t>
   </si>
   <si>
-    <t>As quantum computing is still in its infancy, there is an inherent lack of knowledge and technology to test a quantum program properly. In the classical realm, mutation testing has been successfully used to evaluate how well a program's test suite detects seeded faults (i.e., mutants). In this article, building on the definition of syntactically equivalent quantum operations, we propose a novel set of mutation operators to generate mutants based on qubit measurements and quantum gates. To ease the adoption of quantum mutation testing, we further propose QMutPy, an extension of the well-known and fully automated open-source mutation tool MutPy. To evaluate QMutPy's performance, we conducted a case study on 24 real quantum programs written in IBM's Qiskit library. Furthermore, we show how better test suite coverage and improvements to test assertions can increase the test suites' mutation score and quality. QMutPy has proven to be an effective quantum mutation tool, providing insight into the current state of quantum tests and how to improve them.</t>
-  </si>
-  <si>
     <t>Mutation_Testing_of_Quantum_Programs_A_Case_Study_With_Qiskit</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>Just, René. "The Major mutation framework: Efficient and scalable mutation analysis for Java." Proceedings of the 2014 international symposium on software testing and analysis. 2014.</t>
+  </si>
+  <si>
+    <t>Fortunato D, Campos J, Abreu R. Mutation Testing of Quantum Programs: A Case Study With Qiskit[J]. IEEE Transactions on Quantum Engineering, 2022, 3: 1-17.</t>
   </si>
 </sst>
 </file>
@@ -654,16 +654,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.4140625" customWidth="1"/>
+    <col min="1" max="1" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -679,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -695,15 +695,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -711,15 +711,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -727,23 +727,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -751,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -759,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -767,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -783,29 +783,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:53" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:53" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -859,157 +859,157 @@
       <c r="AZ18" s="5"/>
       <c r="BA18" s="5"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="V22" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="V20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="V22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="B36" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
